--- a/GPT_MASB_Room104.xlsx
+++ b/GPT_MASB_Room104.xlsx
@@ -462,17 +462,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-ME-025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,12 +482,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-026</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-026</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-027</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24001-EC-025</t>
+          <t>22001-EC-025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24001-EC-026</t>
+          <t>22001-EC-026</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24001-EC-027</t>
+          <t>22001-EC-027</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-027</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-028</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-028</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -571,12 +571,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-029</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-029</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24001-EC-028</t>
+          <t>22001-EC-028</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24001-EC-029</t>
+          <t>22001-EC-029</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -623,19 +623,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>24001-EC-030</t>
+          <t>22001-EC-030</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-030</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-030</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-031</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-032</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24001-EC-031</t>
+          <t>22001-EC-031</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>24001-EC-032</t>
+          <t>22001-EC-032</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
